--- a/Datasets/parsedTests/OAB-40.xlsx
+++ b/Datasets/parsedTests/OAB-40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>question_number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>question</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>legalPrinciples</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>answers</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>canceledQuestion?</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>disciplines</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>QUESTÃO 01. Pedro, contador com vasta experiência e sólida carreira, decide fazer uma segunda 
 graduação, tornando -se bacharel em Direito. Depois da aprovação no Exame de Ordem Unificado e da 
@@ -480,7 +493,7 @@
 publicidade, os serviços de contabilidade.</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão trata do tema atividades incompatíveis com a advocacia.  
@@ -506,22 +519,30 @@
 independentemente de mencionar ou não serviços contábeis.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Estatuto da OAB, Código de Ética e Disciplina da OAB, Artigo 28 do Estatuto da Ordem dos Advogados do Brasil (OAB)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E2" t="b">
-        <v>0</v>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>QUESTÃO 02. Formalizou -se, no Tribunal Regional Eleitoral do Estado Alfa, a vacância de um dos cargos 
 de juiz eleitoral, reservado constitucionalmente à classe de advogados. De igual modo, no Tribunal 
@@ -543,7 +564,7 @@
 Estado Alfa, competirá ao Conselho Seccional da OAB desse Estado a elaboração das duas listas.</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão trata do tema participação de advogados nos tribunais.  
@@ -580,22 +601,30 @@
 órgãos de jurisdição estadual ou que tenham atuação limitada ao território do estado, como é o caso do TRE.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Art. 54. Compete ao Conselho Federal: XIII - elaborar as listas constitucionalmente previstas, para o preenchimento dos cargos nos tribunais judiciários de âmbito nacional ou interestadual, com advogados que estejam em pleno exercício da profissão, vedada a inclusão de nome de membro do próprio Conselho ou de outro órgão da OAB;, Art. 58. Compete privativamente ao Conselho Seccional: XIV - eleger as listas, constitucionalmente previstas, para preenchimento dos cargos nos tribunais judiciários, no âmbito de sua competência e na forma do Provimento do Conselho Federal, vedada a inclu são de membros do próprio Conselho e de qualquer órgão da OAB</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E3" t="b">
+      <c r="F3" t="b">
         <v>1</v>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>QUESTÃO 03. Valmir, bacharel em Direito, aprovado no Exame da Ordem dos Advogados do Brasil, ocupa 
 o cargo público de agente de Polícia Civil do Estado Alfa . Movido por sentimento altruísta, Valmir requer 
@@ -613,7 +642,7 @@
 óbice para o exercício da advocacia.</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão trata do tema incompatibilidade na advocacia.  
@@ -636,22 +665,30 @@
 Estatuto da OAB, proibindo -o de exercer a advocacia e m qualquer contexto.</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Artigo 28 do Estatuto da OAB, Estatuto da Advocacia e da OAB (Lei nº 8.906/1994), Incompatibilidade para o exercício da advocacia, Independência da advocacia</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E4" t="b">
-        <v>0</v>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>QUESTÃO 04. Sebastião, advogado, celebrou contrato de mandato com o cliente Amir, para representá -lo 
 extrajudicialmente, tendo realizado diligências em prol da resolução do imbróglio.  Desde a celebração do 
@@ -668,7 +705,7 @@
 instrumento.</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão trata do tema mandato entre cliente e advogado.  
@@ -698,22 +735,30 @@
 incluindo a possibilidade de definir um prazo para sua vigência.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Código de Ética da OAB, Art. 16 do Código de Ética da OAB, Estatuto da Advocacia e a Ordem dos Advogados do Brasil (OAB), Código Civil brasileiro, Art. 682 do Código Civil</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E5" t="b">
-        <v>0</v>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>QUESTÃO 05. Antônio Oliveira, advogado, cometeu infração disciplinar no exercício de suas funções, 
 submetendo -se a processo disciplinar perante o Tribunal de Ética e Disciplina do Conselho Seccional 
@@ -729,7 +774,7 @@
 da representação.</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão trata do tema processo disciplinar.  
@@ -755,22 +800,30 @@
 da OAB, geralmente a câmara ou o tribunal de ética e disciplina.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Estatuto da Advocacia e a Ordem dos Advogados do Brasil (OAB), artigo 72, Regulamento Geral da OAB, artigo 50, I, princípios do contraditório e da ampla defesa, Estatuto da OAB, artigo 77, princípio acusatório</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E6" t="b">
-        <v>0</v>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>QUESTÃO 06. Determinada sociedade de advogados deseja se associar a advogados que não a integram 
 para prestação de serviços e participação nos resultados.  
@@ -786,7 +839,7 @@
 de advogados com sede ou filial na mesma área territorial do respectivo Conselho Seccional.</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão trata do tema advogado associado.  
@@ -811,22 +864,30 @@
 de associações que um advogado pode estabelecer.</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>artigo 17-B do Estatuto da OAB, Estatuto da Ordem dos Advogados do Brasil (OAB), Lei nº 14.365, de 2022, parágrafo único do artigo 17-B</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E7" t="b">
-        <v>0</v>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>QUESTÃO 07. Monique, advogada regularmente inscrita nos quadros da OAB, é investigada em inquérito 
 policial por suspostos crimes praticados por motivo ligado ao exercício da advocacia, tendo sido presa em 
@@ -844,7 +905,7 @@
 substituído por representante da Defensoria Pública, visto que ambos podem figurar como defensores.</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão trata do tema prisão em flagrante de advogados.  
@@ -871,22 +932,30 @@
 garantir o respeito às especificidades da profissão e aos direitos do advogado.</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Estatuto da Advocacia e a Ordem dos Advogados do Brasil (OAB) - Lei nº 8.906/1994, artigo 7º, IV a VI do Estatuto da Advocacia (Lei nº 8.906/1994), artigo 7º do Estatuto da OAB</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E8" t="b">
-        <v>0</v>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>QUESTÃO 08. Mariângela, advogada trabalhista, foi intimada pelo juízo da Vara do Trabalho de sua cidade 
 para comparecer a audiência única, designada para 16h15 de determinado dia.  
@@ -905,7 +974,7 @@
 advogada constituída nos autos.</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . A questão trata do tema direitos da advogada mulher.  
@@ -929,22 +998,30 @@
 profissões sem prejuízo à maternidade e aos cuidados com seus filhos.</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>artigo 7º-A do Estatuto da OAB, Estatuto da Ordem dos Advogados do Brasil (OAB), Lei nº 13.363, de 2016</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E9" t="b">
-        <v>0</v>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>QUESTÃO 09. Uma norma jurídica não vale porque tem um determinado conteúdo... (Hans Kelsen).  O que 
 faz uma norma jurídica ser válida é tema central para a teoria e a Filosofia do Direito.  
@@ -958,7 +1035,7 @@
 d) O direito das gentes.</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão trata do tema Normativismo em Hans Kelsen.  
@@ -985,22 +1062,30 @@
 independentemente da sua esfera de aplicação.</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Normativismo em Hans Kelsen, Teoria Pura do Direito, norma fundamental (Grundnorm), hierarquia normativa, direito das gentes, direito internacional público</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E10" t="b">
-        <v>0</v>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Filosofia do Direito</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>QUESTÃO 10. "Portanto, a moralidade, e a humanidade enquanto capaz de moralidade, são as únicas 
 coisas que têm dignidade." Immanuel Kant.  
@@ -1014,7 +1099,7 @@
 d) A dignidade ocorre quando alguém possui elevada estima por si mesmo, mantendo seu amor próprio.</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão trata do tema Metafísica dos Costumes de Immanuel Kant.  
@@ -1038,22 +1123,30 @@
 cada pessoa como um fim em si mesmo.</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Metafísica dos Costumes de Immanuel Kant, Dignidade da pessoa humana, Autonomia, Racionalidade, Imperativo categórico</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E11" t="b">
-        <v>0</v>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Filosofia do Direito</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>QUESTÃO 11. Em uma cidade situada no município Gama, José Silva sofreu grave acidente ao ser 
 atropelado por um caminhão. Com lesões pelo corpo, ele foi conduzido ao hospital municipal situado na 
@@ -1072,7 +1165,7 @@
 brasileira, ser trabalhador ou contribuir com a Previdência Social.</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . A questão trata do tema Direito à Saúde.  
@@ -1092,22 +1185,30 @@
 previdenciária, uma vez que a saúde é um direito de todos os indivíduos.</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Direito à Saúde, Artigo 196 da Constituição, Princípio de universalidade do acesso aos serviços de saúde</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E12" t="b">
-        <v>0</v>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>QUESTÃO 12. O Supremo Tribunal Federal (STF), por dois terços de seus membros, aprovou de ofício, no 
 último mês, a Súmula Vinculante XXX, que versa sobre matéria tributária. O deputado federal João da 
@@ -1127,7 +1228,7 @@
 ao poder de legislar dos entes federativos.</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Comentários   
  A alternativa correta é a letra B . A questão trata do tema Súmulas Vinculantes.  
@@ -1156,22 +1257,30 @@
 constitucionalidade, mas isso não impede sua proposição ou aprovação pelo Legislativo.</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Súmulas Vinculantes, Constituição Federal, Súmulas Vinculantes não vinculam o legislativo, Segurança Jurídica, Uniformidade de interpretação da legislação, Efeito vinculante sobre a administração pública direta e indireta nas esferas federal,  estadual e municipal, Autonomia do Poder Legislativo para legislar, Análise da constitucionalidade da nova legislação pelo STF</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E13" t="b">
-        <v>0</v>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>QUESTÃO 13. O Presidente da República almeja apresentar ao Poder Legislativo um projeto de lei sobre 
 cláusula penal, de proteção ambiental e sua aprovação. Com isso, quer almejar um outro prisma da 
@@ -1192,7 +1301,7 @@
 ele não teria emendas ao seu projeto, e imediatamente, a lei produziria seus efeitos.</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Comentários   
  A alternativa correta é a letra B . A questão trata do tema iniciativa em medidas provisórias.  
@@ -1221,22 +1330,30 @@
 discussão e emendas por parte do Congresso.</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Medida provisória (MP), Artigo 64, §§ 1º e 2º, da Constituição Federal</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E14" t="b">
-        <v>0</v>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>QUESTÃO 14. Determinada associação nacional, que congrega oficiais de registro e notários, foi 
 surpreendida com a publicação de lei federal X, que muda a destinação dos emolumentos cartorários, de 
@@ -1255,7 +1372,7 @@
 X afronta a ordem constitucional.</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão trata do tema custas e emolumentos na Constituição Federal.   
@@ -1281,22 +1398,30 @@
 estabelecido constitucionalmente.</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Constituição Federal, artigo 98, § 2º, Constituição Federal, Emolumentos (taxas cobradas pelos serviços cartorários), destinação dos emolumentos cartorários é constitucionalmente limitada ao custeio das atividades específicas da Justiça</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E15" t="b">
-        <v>0</v>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>QUESTÃO 15. Depois da ocorrência de calamidade de grandes proporções, em razão de enchentes 
 causadas por chuvas intensas e de longa duração e com efeitos devastadores, e, além disso, classificada 
@@ -1316,7 +1441,7 @@
 poderes, pelo Congresso Nacional.</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão trata do tema Estado de Defesa.  
@@ -1339,22 +1464,30 @@
 Nacional sobre a decretação e os limites temporais pré -estabelecidos na própria Constituição.</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>artigo 136 da Constituição Federal, Estado de Defesa</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E16" t="b">
-        <v>0</v>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>QUESTÃO 16. Uma Proposta de Emenda à Constituição (PEC) é apresentada por um grupo de deputados 
 federais, com fim de autorizar a orçamentação constitucional, cujo objeto é a alteração do Art. 60, § 4º, 
@@ -1380,7 +1513,7 @@
 perante o Supremo Tribunal Federal.</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . A questão trata do tema controle de constitucionalidade.  
@@ -1409,22 +1542,30 @@
 promulgada.</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Controle de constitucionalidade, Artigo 5º, inciso LXIX, da Constituição Federal, Artigo 60, § 4º da Constituição Federal, Mandado de segurança, Direito líquido e certo, Habeas corpus, Habeas data, Devido processo legislativo, Cláusulas pétreas</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E17" t="b">
-        <v>0</v>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>QUESTÃO 17. STJ transfere à Justiça Federal apuração da morte de líderes de trabalhadores rurais em 
 Rondônia . A pedido da Procuradoria -Geral da República (PGR), a Terceira Seção do Superior Tribunal de 
@@ -1441,7 +1582,7 @@
 d) Ação Popular.</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão tratou sobre o Incidente de Deslocamento de Competência (IDC).  
@@ -1460,22 +1601,30 @@
 As alternativas C e D estão incorretas , conforme comentários à alternativa B.</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Incidente de Deslocamento de Competência (IDC), Art. 109, § 5º da CRFB, Emenda Constitucional n.º 45/2004, Obrigações decorrentes de tratados internacionais de direitos humanos dos quais o Brasil seja parte</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E18" t="b">
-        <v>0</v>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Direitos Humanos</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>QUESTÃO 18. Os conflitos armados, infelizmente, são uma realidade que afeta diferentes países. As quatro 
 Convenções de Genebra de 1949 conformam a base do Direito Internacional Humanitário.  
@@ -1494,7 +1643,7 @@
 de guerra pela Assembleia -Geral das Nações Unidas.</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A .  
@@ -1506,22 +1655,30 @@
 As alternativas B, C e D estão incorretas , conforme comentário à alternativa A.</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Convenções de Genebra de 1949, Decreto n.º 42.121/1957, Artigo 3º</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E19" t="b">
-        <v>0</v>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Direitos Humanos</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>QUESTÃO 19. João, candidato ao cargo eletivo de prefeito municipal, logrou ser eleito. No entanto, por 
 ser muito desorganizado, não conseguiu localizar os documentos necessários para a prestação de contas 
@@ -1534,7 +1691,7 @@
 contas.</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Comentários   
  A alternativa correta é a letra A . 
@@ -1545,22 +1702,30 @@
 As alternativas B, C e D estão incorretas , pelo fundamento exposto na alternativa A.</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>art. 29, §2º, da Lei nº 9.504/97 (Lei das Eleições)</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E20" t="b">
-        <v>0</v>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Direito Eleitoral</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>QUESTÃO 20. Entre os correligionários do partido político Alfa estavam dois dos pré -candidatos 
 considerados favoritos na eleição para governador do Estado Beta. Como somente um deles poderia ser 
@@ -1575,7 +1740,7 @@
 d) As transmissões por emissoras de rádio e televisão das prévias partidárias, ao vivo, são vedadas.</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . 
@@ -1594,22 +1759,30 @@
 como o uso de inteligência artificial (IA).</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>art. 3º, §1º, da Resolução nº 23.610/2019 do TSE, Lei nº 9.504/1997, art . 36-A, § 1º, Resolução nº 23.610/2019 do TSE, Resolução nº 23.732/2024</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E21" t="b">
-        <v>0</v>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Direito Eleitoral</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>QUESTÃO 21. Uma sociedade empresária colombiana celebrou, na Inglaterra, com uma sociedade alemã, 
 um contrato para a entrega de 500 (quinhentas) sacas de café tipo arábica no Porto de Santos, Brasil, sem 
@@ -1624,7 +1797,7 @@
 d) A autoridade judiciária brasileira, concorrentemente.</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . A questão tratou sobre a competência jurisdicional de acordo com o Direito 
@@ -1646,22 +1819,30 @@
 As alternativas A, B e C estão incorretas , conforme comentário à alternativa D.</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Direito Internacional Privado, LINDB: Art. 12, CPC: Art. 21, Soberania nacional, Competência da jurisdição brasileira é concorrente</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E22" t="b">
-        <v>0</v>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Direito Internacional</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>QUESTÃO 22. A Fundação de Juristas Moçambique -Brasil, associação privada de fim de interesse coletivo, 
 constituiu -se na década de 1990, na cidade de Maputo, capital de Moçambique, e pretende abrir filial no 
@@ -1678,7 +1859,7 @@
 moçambicano, ficando a filial sujeita à lei moçambicana.</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão tratou sobre o ingresso de organizações de interesse coletivo 
@@ -1693,22 +1874,30 @@
 de Moçambique.</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Art. 11, § 1º, da LINDB</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E23" t="b">
-        <v>0</v>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Direito Internacional</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>QUESTÃO 23. A Escolinha do Gol, entidade privada sem fins lucrativos, que realiza sua função social de 
 fomento ao esporte no Município Alfa, Estado Beta, entre os anos de 2020 a 2022, recebeu diretamente 
@@ -1730,7 +1919,7 @@
 atividade diversa da originalmente estabelecida ou que não os tenham aplicado integralmente.</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . 
@@ -1757,22 +1946,30 @@
 quais a União responda, ou que, em nome desta, assuma obrigações de natureza pecuniária” .</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Dever de prestar contas, Art. 70, parágrafo único, da Constituição Federal, Art. 71, VI, da Constituição Federal</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E24" t="b">
-        <v>0</v>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Direito Financeiro</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>QUESTÃO 24. O Presidente da República se quedou inerte quanto à elaboração e ao envio do projeto de 
 Lei Orçamentária Anual (LOA) da União para aprovação do Congresso Nacional no prazo estabelecido pela 
@@ -1793,7 +1990,7 @@
 excepcional, a Constituição Federal de 1988 prevê um maior rigor para sua aprovação.</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . 
@@ -1827,22 +2024,30 @@
 2-2004, P, DJ de 23 -4-2004.] = ADI 2 .447, rel. min. Joaquim Barbosa, j. 4 -3-2009, P, DJE de 4 -12-2009”.</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Art. 165, III, da Constituição Federal, Art. 166, § 6º, da Constituição Federal, Entendimento do STF sobre a competência privativa do Presidente da República na elaboração e envio da LOA ao Congresso Nacional, ADI 882, ADI 2.447, Art. 32 da Lei nº 4.320/64, Lei Orçamentária Anual é lei ordinária, Vício de iniciativa</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E25" t="b">
-        <v>0</v>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Direito Financeiro</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>QUESTÃO 25. O Munic ípio Alfa pretende firmar conv ênio com a Uni ão para fiscalizar e arrecadar 
 diretamente o Imposto sobre a Propriedade Territorial Rural (ITR) dos im óveis rurais situados em seu 
@@ -1856,7 +2061,7 @@
 agentes da Administração Tributária Federal.</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B.  
@@ -1878,22 +2083,30 @@
 Municípios, conforme art. 153, §4º, III, da CF.</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Competência tributária, Repartição de receitas tributárias, Art. 7º, caput, do CTN, Art. 158, II, da CF, Art. 153, § 4º, III, da CF</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E26" t="b">
-        <v>0</v>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Direito Tributário</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>QUESTÃO 26. Jo ão e Jos é decidem constituir uma sociedade empres ária, denominada Informática ABC 
 Ltda. , especializada na prestação de serviços na área de informática. João integralizou 50% do capital  
@@ -1913,7 +2126,7 @@
 em realização de capital.</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . 
@@ -1935,22 +2148,30 @@
 e venda desses bens ou direitos, locação de bens imóveis ou arrendamento merca ntil”.</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>imunidade tributária, art. 151, III, da CF, art. 156, §2º, I, da CF</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E27" t="b">
-        <v>0</v>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Direito Tributário</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>QUESTÃO 27. A sociedade empres ária Books &amp; Books Ltda. , verificando a queda na receita de venda de 
 livros impressos e o fechamento de inúmeras outras livrarias locais, decide alterar seu negócio para 
@@ -1971,7 +2192,7 @@
 importação ou a comercialização deles no mercado interno.</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A , pois revela o teor da Súmula Vinculante 57: “A imunidade tributária 
@@ -1982,22 +2203,30 @@
 As alternativas B, C e D contrariam o enunciado da Súmula Vinculante 57, logo são incorretas.</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Súmula Vinculante 57, Art. 150, VI, d, da CF/88, imunidade tributária</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E28" t="b">
-        <v>0</v>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Direito Tributário</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>QUESTÃO 28. Para conter a escalada de pre ços dos combust íveis que vem afetando a economia nacional, 
 a equipe econ ômica do governo federal estuda a possibilidade de conceder, mediante lei complementar 
@@ -2014,7 +2243,7 @@
 combustíveis, e tal lei acaba por violá -la.</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . 
@@ -2033,22 +2262,30 @@
 disposição; III - contribuição de melhoria, decorrente de obras públicas.”</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>vedação à concessão de isenção heterônoma, inciso III do artigo 151 da CF, art. 151, III, da CF, Art. 145. A União, os Estados, o Distrito Federal e os Municípios poderão instituir os seguintes tributos: I - impostos; II - taxas, em razão do exercício do po der de polícia ou pela utilização, efetiva ou potencial, de serviços públicos específicos e divisíveis, prestados ao contribuinte ou postos a sua disposição; III - contribuição de melhoria, decorrente de obras públicas., CF</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E29" t="b">
-        <v>0</v>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Direito Tributário</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>QUESTÃO 29. Determinado pa ís declarou guerra ao Brasil. Para fazer frente aos gastos com o esfor ço de 
 guerra, a Uni ão resolveu criar, por lei federal ordin ária, um imposto extraordin ário de guerra, com a 
@@ -2063,7 +2300,7 @@
 d) É válido, mas deve ser suprimido, gradativamente, cessadas as causas de sua criação.</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . 
@@ -2084,22 +2321,30 @@
 suprimidos, gradativamente, cessadas as causas de sua criação”.</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>art. 154, II, da CF, Lei Ordinária, bitributação permitida pela própria Constituição Federal, imposto deverá ser suprimido gradativamente quando cessadas as causas de sua criação</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E30" t="b">
-        <v>0</v>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Direito Tributário</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>QUESTÃO 30. Vicente, servidor público federal estável, praticou conduta que corresponde a crime, na 
 forma da legislação penal, e se enquadra como falta funcional grave, passível de demissão.  
@@ -2121,7 +2366,7 @@
 fundada na ausência de provas.</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . 
@@ -2145,22 +2390,30 @@
 exceções contempladas em nossa legislação.</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Art. 121 da Lei 8.112/90, Art. 149 da Lei 8.112/90, § 3o do art. 143 da Lei 8.112/90, Art. 125 da Lei 8.112/90</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E31" t="b">
-        <v>0</v>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Direito Administrativo</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>QUESTÃO 31. A sociedade empresária Sabiá tomou conhecimento de um edital de licitação elaborado pelo 
 Município Alfa para promover a permissão de determinado serviço público de competência local, razão 
@@ -2177,7 +2430,7 @@
 para a prestação do serviço por sua conta e risco.</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . 
@@ -2199,22 +2452,30 @@
 alternativa A.</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>art. 2º, IV, da Lei 8.987/95, art. 175, caput da Constituição da República</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E32" t="b">
-        <v>0</v>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Direito Administrativo</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>QUESTÃO 32. Jamile, após aprovação em concurso público, foi investida em cargo efetivo na Secretaria de 
 Administração do Estado Alfa, no qual alcançou a estabilidade.  
@@ -2233,7 +2494,7 @@
 ao tempo de serviço, até o seu adequado aproveitamento em outro cargo.</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . 
@@ -2253,22 +2514,30 @@
 proporcional ao tempo de serviço, até seu adequado aproveitamento em outro ca rgo.”</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>art. 30 da Lei 8.112/90, art. 41, §3º, da CRFB</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E33" t="b">
-        <v>0</v>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Direito Administrativo</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>QUESTÃO 33. Marcelo, servidor público federal estável, aposentou -se por invalidez. Meses depois, uma 
 junta médica oficial declarou insubsistentes os motivos de sua aposentadoria.   
@@ -2285,7 +2554,7 @@
 a habilitação exigida, o nível de escolaridade e a equivalência de vencimento.</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C.  
@@ -2301,22 +2570,30 @@
 de reversão, como acima fundamentado nos comentários à letra C.</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>art. 25, I, da Lei 8.112/90, Reversão</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E34" t="b">
-        <v>0</v>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Direito Administrativo</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>QUESTÃO 34. O Ministério Público Federal ajuizou ação buscando responsabilização judicial da Sociedade 
 Empresária Delta pela prática de atos lesivos à Administração Pública que atentaram contra o patrimônio 
@@ -2339,7 +2616,7 @@
 ilícitos ou a identidade dos beneficiários d os atos praticados.</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a  letra D . 
@@ -2363,22 +2640,30 @@
 beneficiários dos atos praticados.”</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Lei Anticorrupção, Art. 19, III, Lei Anticorrupção, Art. 5º, Lei Anticorrupção, Art. 19, §1º, I e II, Lei Anticorrupção</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E35" t="b">
-        <v>0</v>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Direito Administrativo</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>QUESTÃO 35. Município Alfa  criou regularmente uma Unidade de Conservação (UC), por meio de decreto 
 do Prefeito. Três anos depois, mediante a realização de novos estudos técnicos e de consulta pública, o  
@@ -2397,7 +2682,7 @@
 da UC se deu por tal via, sua redução pode ser realizada pelo mesmo instrumento normativo.</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . 
@@ -2415,22 +2700,30 @@
 Federal nº 9.985/2000.</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Lei Federal nº 9.985/2000, art. 22, §7º, da Lei Federal nº 9.985/2000, art. 22, §6º, da Lei Federal nº 9.985/2000</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E36" t="b">
-        <v>0</v>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Direito Ambiental</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>QUESTÃO 36. A sociedade empresária Gama  requereu licença ambiental para empreender um aterro 
 sanitário. O processo de licenciamento ambiental tramita no órgão licenciador competente.  
@@ -2455,7 +2748,7 @@
 as especificações constantes dos planos, programas e pr ojetos aprovados.</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . 
@@ -2481,22 +2774,30 @@
 inicial do planejamento.</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>art. 8º, inciso I, da Resolução CONAMA nº 237/1997, art. 8º, parágrafo único, da Resolução CONAMA nº 237/1997, art. 8º, inciso III, da Resolução CONAMA nº 237/1997, art. 8º, inciso II, da Resolução CONAMA nº 237/1997</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E37" t="b">
-        <v>0</v>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Direito Ambiental</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>QUESTÃO 37. Vitória e Rodrigo foram casados, em regime de comunhão parcial de bens, e são pais de 
 Mariana. Quando Mariana atingiu 16 (dezesseis) anos, os pais divorciaram -se, passando a residir em lares 
@@ -2512,7 +2813,7 @@
 caso, o dever de educação passa a ser somente do pai.</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . 
@@ -2527,22 +2828,30 @@
 deveres de ambos os cônjuges: IV - sustento, guarda e educação dos filhos”.</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Art. 1.566, IV, do Código Civil, Art. 1.634, I, do Código Civil, Art. 1.579 do Código Civil</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E38" t="b">
-        <v>0</v>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>QUESTÃO 38. Joana trabalhou por 15 anos como empregada doméstica na residência de Alzira, um imóvel 
 de 60 metros quadrados, herdado de seu falecido pai. Durante todo esse período, Joana percebeu salários 
@@ -2564,7 +2873,7 @@
 devedora.</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . 
@@ -2590,22 +2899,30 @@
 nas hipóteses previstas nesta lei”.</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Art. 2º da Lei nº 8.009/90, Art. 1º, caput, da Lei nº 8.009/90, Art. 1º, parágrafo único, da Lei nº 8.009/90</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E39" t="b">
-        <v>0</v>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>QUESTÃO 39. Antônio, locatário de um imóvel residencial, verificou uma enorme infiltração atrás dos 
 armários da cozinha. Com a finalidade de evitar maior deterioração do imóvel, Antônio realizou a obra a 
@@ -2624,7 +2941,7 @@
 benfeitoria necessária.</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . 
@@ -2671,22 +2988,30 @@
 que se deteriore.</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Art. 96 do Código Civil, § 1º do art. 96 do Código Civil, § 3º do art. 96 do Código Civil</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E40" t="b">
-        <v>0</v>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>QUESTÃO 40. André, mediante contrato escrito, comprou o carro de passeio de seu vizinho, Bernardo. 
 Duas semanas depois, enquanto André o conduzia por uma das principais avenidas da cidade, o veículo 
@@ -2700,7 +3025,7 @@
 de garantia contra vícios ocultos.</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C .  
@@ -2728,22 +3053,30 @@
 perdas e danos; se o não conhecia, tão -somente restituirá o valor recebido, mais  as despesas do contrato”.</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>art. 443 do Código Civil, Vícios redibitórios</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E41" t="b">
-        <v>0</v>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>QUESTÃO 41. Mariana e Lucas estão casados há mais de 10 anos em regime da comunhão parcial de bens. 
 Recentemente, Mariana descobriu que Lucas vem mantendo uma relação extraconjugal com uma vizinha. 
@@ -2762,7 +3095,7 @@
 com os filhos menores de idade.</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . 
@@ -2790,22 +3123,30 @@
 deveres dos pais em relação aos filhos”.</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Responsabilidade Civil na seara familiar, Art. 1.566, I, do Código Civil, Emenda Constitucional n. 66/10, arts. 1.658 a 1.666 do Código Civil, Art. 1.579 do Código Civil</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E42" t="b">
-        <v>0</v>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>QUESTÃO 42. Joaquim estava jantando com sua família em um restaurante, quando percebeu que sua 
 filha tinha iniciado um quadro alérgico, apresentando dificuldades respiratórias, que a colocavam em 
@@ -2823,7 +3164,7 @@
 d) Estado de necessidade, sem prazo decadencial.</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . 
@@ -2872,22 +3213,30 @@
 inexistência de dever jurídico de enfrentar o perigo”.</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>art. 178, II, do Código Civil, art. 157 do Código Civil, art. 156, caput, do Código Civil</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E43" t="b">
-        <v>0</v>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>QUESTÃO 43. Rafael e Marta se casaram. Rafael tem dois filhos do relacionamento anterior, ambas 
 crianças com idade inferior a 5 anos. A genitora das crianças teve decretada a perda do poder familiar em 
@@ -2911,7 +3260,7 @@
 irrelevante essa origem para o fato de determinante influenciador do modelo de guarda.</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . A questão trata do tema adoção.  
@@ -2934,22 +3283,30 @@
 com base no melhor interesse da criança, independentemente do vínculo genético.</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Adoção, Artigo 41, parágrafo 1º do ECA, Estatuto da Criança e do Adolescente (ECA), Melhor interesse da criança ou adolescente</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E44" t="b">
-        <v>0</v>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Direito da Criança e do Adolescente</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>QUESTÃO 44. Rafael, de 16 anos, foi apreendido após invadir uma loja de cosméticos e, mediante o 
 emprego de arma de fogo, subtrair os pertences da caixa. Devidamente processado, o juízo da infância 
@@ -2969,7 +3326,7 @@
 nas medidas socioeducativas de liberdade assistida e de prestação de serviços à comunidade.</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão trata do tema medidas socioeducativas.  
@@ -2993,22 +3350,30 @@
 nesta alternativa.</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Artigo 120 do ECA, Estatuto da Criança e do Adolescente (ECA), Medidas socioeducativas, Reintegração do adolescente ao convívio social, Regime de semiliberdade</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E45" t="b">
-        <v>0</v>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Direito da Criança e do Adolescente</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>QUESTÃO 45. Carlos, um consumidor, celebrou um contrato de adesão para aquisição de um pacote 
 turístico. Ao ler atentamente o contrato, Carlos identificou uma cláusula que determinava que ele não 
@@ -3026,7 +3391,7 @@
 mesmo que não listadas.</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a  letra D.  
@@ -3053,22 +3418,30 @@
 consumidores” (REsp 1.321.655, Terceira Turma).</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>art. 51 do CDC, teoria do risco do empreendimento, art. 54, caput, do CDC, REsp 1.321.655, Terceira Turma</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E46" t="b">
-        <v>0</v>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Direito do Consumidor</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>QUESTÃO 46. Você, como advogado(a), foi procurado(a) pela senhora Magda para orientá -la quanto às 
 dificuldades de atendimento de suas demandas no Serviço de Atendimento ao Consumidor (SAC) da 
@@ -3093,7 +3466,7 @@
 telefônico, sendo possível veicular mensagens antes  do atendimento.</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C.  
@@ -3146,22 +3519,30 @@
 poderia ser aferido do edital, a</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Art. 4º, caput, do Decreto 11.034/2022, §5º, do art. 4º, do Decreto 11.034/2022, §6º, do art. 4º, do Decreto 11.034/2022, art. 4º, §2º, do Decreto 11.034/2022, art. 12, caput, do Decreto 11.034/2022, art. 16 do Decreto 11.034/2022, art. 56 da Lei nº 8.078, de 1990 - Código de Defesa do Consumidor, Lei nº 8.078, de 11 de setembro de 1990 - Código de Defesa do Consumidor, item 3.4.1 do edital, § 3º do art. 11 no Provimento 144, de 13 de junho de 2011, Provimento 156, de 1º de novembro de 2013, do Conselho Federal da OAB, item 24 do edital, Lei 8.078/90 – Código de Defesa do Consumidor, princípio da publicidade</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E47" t="b">
-        <v>0</v>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Direito do Consumidor</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>QUESTÃO 47. A partir de 2022, a possibilidade de o local de exercício da atividade empresarial ser virtual 
 passou a ser reconhecido no Código Civil.  
@@ -3179,7 +3560,7 @@
 seguintes.</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C.  
@@ -3209,22 +3590,30 @@
 competentes, o que não é o caso em tela.</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Art. 1.142, § 1º do Código Civil, Art. 1.142 do Código Civil, Art. 3º, II da Lei nº 13.874, Decreto-lei 5.844/1943, artigo 195</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E48" t="b">
-        <v>0</v>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Direito Empresarial</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>QUESTÃO 48. Quatro pessoas naturais constituíram uma sociedade para exploração de prestação de 
 serviços de entrega domiciliar, mas não se preocuparam em arquivar o documento particular de 
@@ -3240,7 +3629,7 @@
 da sociedade limitada.</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A.  
@@ -3267,22 +3656,30 @@
 da sociedade simples."</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Código Civil, Art. 986</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E49" t="b">
-        <v>0</v>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Direito Empresarial</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>QUESTÃO 49. Os cientistas Pio Alves e Cardoso Moreira desenvolveram dois produtos que reúnem os 
 requisitos de patenteabilidade e reivindicaram a autoria perante o Instituto Nacional da Propriedade 
@@ -3296,7 +3693,7 @@
 utilidade.</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A.  
@@ -3316,22 +3713,30 @@
 de 20 (vinte) anos e a de modelo de utilidade pelo prazo 15 (quinze)  anos contados da data de depósito."</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Lei nº 9.279, Art. 40 da Lei nº 9.279, patente de invenção, patente de modelo de utilidade</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E50" t="b">
-        <v>0</v>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Direito Empresarial</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>QUESTÃO 50. O juiz da falência da sociedade empresária Refrigeração Abaíra Ltda. determinou que o 
 administrador judicial ficasse responsável pela guarda dos bens arrecadados. O administrador judicial, 
@@ -3353,7 +3758,7 @@
 caução antes de serem imitidos na posse dos bens.</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B.  
@@ -3388,22 +3793,30 @@
 ou qualquer de seus representantes ser nomeado depositário dos bens."</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Lei 11.101, art. 108, Lei 11.101, art. 108, § 1º</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E51" t="b">
-        <v>0</v>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Direito Empresarial</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>QUESTÃO 51. Aline recebeu uma proposta de investimento de Gizé Ltda., instituição que atua no mercado 
 financeiro, que lhe garantiria um retorno fixo mensal de 10% ao mês sobre o capital investido. Crendo 
@@ -3428,7 +3841,7 @@
 posteriormente, com base nos mesmos fundamentos.</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . 
@@ -3456,22 +3869,30 @@
 cautelar, é vedado à parte renovar o pedido, salvo sob novo fundamento”.</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Art. 309 do CPC, Art. 308 do CPC, Parágrafo único do art. 309 do CPC</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E52" t="b">
-        <v>0</v>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>QUESTÃO 52. Júlio, advogado ainda inexperiente, preocupado com a possibilidade de perder o prazo para 
 oferecer contestação em favor de Roberta, sua cliente que está viajando, indaga a você se ele deve esperar 
@@ -3489,7 +3910,7 @@
 sem procuração.</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . 
@@ -3515,22 +3936,30 @@
 A alternativa D está incorreta . Conforme comentários da alternativa A.</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Instrumento de procuração no processo civil, Art. 104 do CPC, Preclusão, Decadência, Prescrição</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E53" t="b">
-        <v>0</v>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>QUESTÃO 53. Na qualidade de servidor público estadual, Marcos ajuizou ação pelo procedimento comum 
 contra o Estado de Minas Gerais, buscando obter o pagamento de determinada verba remuneratória que 
@@ -3556,7 +3985,7 @@
 se dê, dado que gozará de prazo em dobro para todas as suas manifestações processuais.</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . 
@@ -3588,22 +4017,30 @@
 consulta ao teor da intimação ou ao término do prazo para que a consulta se dê.</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>art. 1.003, §5º, CPC, art. 183, caput, CPC, art. 183, §1º, art. 218, §4º, art. 1.023, CPC, art. 183, CPC, Art. 231, V, CPC</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E54" t="b">
-        <v>0</v>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>QUESTÃO 54. O engenheiro civil José Carlos Silva trabalha em Aracaju/SE. Ele realizou a reforma da casa 
 de Luzia, no valor de R$ 15.000,00 (quinze mil reais). O serviço foi devidamente prestado, sem qualquer 
@@ -3631,7 +4068,7 @@
 penhora de Luzia.</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . 
@@ -3660,22 +4097,30 @@
 A alternativa D está incorreta . Conforme comentários da alternativa B.</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>ato atentatório à dignidade da justiça, execução de título extrajudicial, art. 774 do CPC</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E55" t="b">
-        <v>0</v>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>QUESTÃO 55. Felipe propôs ação de reparação de danos contra Gustavo fundada em responsabilidade 
 extracontratual, em razão de Felipe ter sido atacado pelo cachorro de Gustavo, enquanto transitava pela 
@@ -3697,7 +4142,7 @@
 embargos de declaração forem acolhidos.</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . 
@@ -3727,22 +4172,30 @@
 A alternativa D está incorreta . Conforme comentários da alternativa B.</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>Art. 1.024, §§4º e 5º do CPC, Princípio da unirrecorribilidade</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E56" t="b">
-        <v>0</v>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>QUESTÃO 56. Leonardo adquiriu uma televisão na Loja Francesa pelo valor de R$ 12.000,00 (doze mil 
 reais), quantia que seria paga por meio de cartão de crédito em 12 (doze) parcelas de R$ 1.000,00. Ocorre 
@@ -3775,7 +4228,7 @@
 de sobrestamento do recurso especial impactado pelo procedimento dos recursos especiais repetitivos.</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . 
@@ -3801,22 +4254,30 @@
 intempestiva.</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>Art. 1.036 do CPC, Recursos especiais repetitivos no âmbito do processo civil, Regimento Interno do Supremo Tribunal Federal, Regimento do Superior Tribunal de Justiça</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E57" t="b">
-        <v>0</v>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>QUESTÃO 57. Paulo é investigado em um Inquérito Policial pelos crimes de ameaça e lesão corporal em 
 face de sua esposa, Maria. Ao longo da investigação, foi decretada medida protetiva de afastamento de 
@@ -3832,7 +4293,7 @@
 d) pode ser submetido a um decreto de prisão preventiva em seu desfavor, mas não cometeu crime.</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão trata sobre a Lei Maria da Penha.  
@@ -3850,22 +4311,30 @@
 11.340/2006.</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Lei Maria da Penha, art. 24-A da lei n. 11.340/2006, art. 100 do CP, art. 24-A, §2º da lei n. 11.340/2006, art. 24-A, caput, da lei n. 11.340/2006, súmula n. 536 do STJ</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E58" t="b">
-        <v>0</v>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>QUESTÃO 58.  Antônio, funcionário público, foi designado como servidor responsável por conduzir a 
 licitação de um Hospital Público que desejava adquirir 100.000 (cem mil) doses de um determinado 
@@ -3888,7 +4357,7 @@
 ilícita ao servidor público para a sua consumação.</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . A questão trata sobre Crimes contra Administração Pública.  
@@ -3906,22 +4375,30 @@
 a funcionário público, para praticar, omi tir ou retardar ato de ofício.” (RHC 95.557 -GO).</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Crimes contra Administração Pública, artigo 317 do CP, artigo 333 do CP, RHC 95.557 -GO</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E59" t="b">
-        <v>0</v>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>QUESTÃO 59.  O médico João dos Santos, durante a realização de uma cirurgia na perna de um paciente, 
 cometeu um erro que acabou provocando a necessária amputação do membro do paciente. A pena 
@@ -3942,7 +4419,7 @@
 do processo, medida despenalizadora prevista na Lei no  9.099/95.</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão trata sobre crime de lesão corporal culposa.  
@@ -3957,22 +4434,30 @@
 A alternativa D está incorreta.  Conforme comentários da alternativa A.</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>crime de lesão corporal culposa, art. 129, §6º, do CP, negligência, imprudência, imperícia, infração de menor potencial ofensivo, artigos 60 e 61 da Lei n. 9.099/95</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E60" t="b">
-        <v>0</v>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>QUESTÃO 60.  Arthur resolveu furtar os cabos de eletricidade da linha férrea de sua cidade, a fim de 
 revender o cobre, clandestinamente. Contudo, após iniciar o corte para retirar os fios de cobre, foi  
@@ -3988,7 +4473,7 @@
 consequências do delito.</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão trata sobre crimes contra o patrimônio.  
@@ -4012,22 +4497,30 @@
 aplicar somente a pena de multa.” (art. 155,§2º, do CP)</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>Artigo 14, II, do Código Penal, Artigo 14, parágrafo único do Código Penal, Artigo 16 do CP, Artigo 107, IX, do CP, Artigo 155, §2º, do CP</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E61" t="b">
-        <v>0</v>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>QUESTÃO 61.  Júlio desferiu um tapa no rosto de Jacinto, que foi projetado contra um poste em que havia 
 um fio de alta tensão exposto, algo que não foi visto nem poderia ser imaginado por Júlio, pois já era noite 
@@ -4044,7 +4537,7 @@
 Júlio ser responsabilizado por homicídio culposo.</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão trata sobre nexo de causalidade.  
@@ -4063,22 +4556,30 @@
 A alternativa D está incorreta.  Conforme comentários da alternativa B.</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>Nexo de Causalidade, art. 13, §1º</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E62" t="b">
-        <v>0</v>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>QUESTÃO 62.  Joaquim dirigia -se a uma agência bancária para sacar o valor de sua aposentadoria. Todavia, 
 às 10h, ao se aproximar do estabelecimento, foi abordado por Gilson que, com emprego de arma de fogo, 
@@ -4095,7 +4596,7 @@
 d) Extorsão mediante restrição da liberdade da vítima.</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . A questão trata sobre crimes contra o patrimônio.  
@@ -4113,22 +4614,30 @@
 é a vítima sequestrada, mas sim familiares e demais pessoas das quais é cobrado o resgate.</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>Crimes contra o patrimônio, Artigo 158, §3º, do CP</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E63" t="b">
-        <v>0</v>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>QUESTÃO 63.  Depois do recebimento de denúncia anônima, a delegacia iniciou a verificação preliminar 
 de informações e colheu indícios de que Juca desenvolvia atividades ilícitas de telecomunicações (pena: 
@@ -4143,7 +4652,7 @@
 d) a ausência de contraditório, antes do deferimento da interceptação, é causa de nulidade.</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão trata sobre interceptação telefônica.  
@@ -4160,22 +4669,30 @@
 posteriormente à produção da prova.</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>art. 2º, III, da lei n. 9.296/96, art. 3º, I, da lei n. 9.296/96</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E64" t="b">
-        <v>0</v>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Direito Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>QUESTÃO 64.  Suelen ajuizou queixa -crime contra Bolívar, pela prática do crime de exercício arbitrário das 
 próprias razões praticado sem violência ou grave ameaça, previsto no Art. 345, caput e parágrafo único, 
@@ -4195,7 +4712,7 @@
 dirigidas à Turma Recursal.</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão trata sobre o Juizado Especial Criminal.  
@@ -4211,22 +4728,30 @@
 A alternativa D está incorreta.  Conforme comentários da alternativa B.</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>Juizado Especial Criminal, art. 82, caput, da lei 9.099/95, §1º do art. 82 da lei 9.099/95</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E65" t="b">
-        <v>0</v>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Direito Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>QUESTÃO 65.  Roberto Jorge, após regular pronúncia, foi levado a Júri, ocasião em que foi mantido 
 algemado durante toda a sessão de julgamento, com a justificativa de ser pessoa de índole perigosa, já 
@@ -4247,7 +4772,7 @@
 argumento de autoridade não caracterizam nenhuma nulidade.</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão trata sobre Júri.  
@@ -4277,22 +4802,30 @@
 A alternativa D está incorreta.  Conforme comentários da alternativa B.</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>Artigo 474, §3º, do CPP, Artigo 478, I, do CPP, Súmula Vinculante n. 11, RHC n. 76.591, Presunção de inocência</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E66" t="b">
-        <v>0</v>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Direito Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>QUESTÃO 66.  Juliano foi definitivamente condenado à pena de 8 (oito) anos de reclusão, em regime inicial 
 fechado. Após 2 (dois) anos de cumprimento da pena, foi detectado que Juliano passou a ter uma doença 
@@ -4308,7 +4841,7 @@
 encarceramento.</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão trata sobre Incidentes de Execução.  
@@ -4323,22 +4856,30 @@
 A alternativa D está incorreta.  Conforme comentários da alternativa A.</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>Incidentes de Execução, artigo 183 da LEP</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E67" t="b">
-        <v>0</v>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Direito Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>QUESTÃO 67.  Luís Vicente, secretário de fazenda do Município Alfa, foi ofendido por Iório, secretário de 
 fazenda do Estado Beta, que, durante discurso na tribuna da Câmara dos Vereadores, afirmou que "Luís 
@@ -4356,7 +4897,7 @@
 de cargo político.</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão trata sobre ação penal.  
@@ -4371,22 +4912,30 @@
 aos membros do poder Legislativo, motivo pelo qual esta não se estende ao agente da questão em análise.</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>Súmula n. 714 do STF, Artigo da CF que prevê imunidade material aos parlamentares</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E68" t="b">
-        <v>0</v>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Direito Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>QUESTÃO 68.  Vanessa, primária e sem antecedentes, grávida de seis meses, foi presa em flagrante no 
 aeroporto no momento em que embarcava com destino à Espanha de posse de 10kg de substância 
@@ -4403,7 +4952,7 @@
 de prisão domiciliar.</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão trata sobre prisão preventiva.  
@@ -4428,22 +4977,30 @@
 A alternativa D está incorreta.  Conforme comentários da alternativa A.</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>Artigo 318-A do CPP, Substituição da prisão preventiva pela domiciliar no caso de mulheres gestantes ou responsáveis por crianças ou pessoas com deficiência, Requisitos para autorizar a substituição da prisão preventiva pela domiciliar: 1 - crime sem violência ou grave ameaça; e 2 - que o crime não seja contra o filho ou dependente, AgRg no HC n. 769.008/SP (STJ)</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E69" t="b">
-        <v>0</v>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Direito Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>QUESTÃO 69. Manoel é segurado de baixa renda, tendo sido recolhido à prisão, em regime fechado, no 
 dia 01/01/2022. Antes da prisão, ele recolheu 12 contribuições mensais à Previdência Social e tem, como 
@@ -4459,7 +5016,7 @@
 nascimento do dependente, sem a necessidade de certidão sobre o seu recolhimento à prisão.</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . 
@@ -4489,22 +5046,30 @@
 de prova de permanência na condição de presidiário para a manutenção do benefíci o”.</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>MP 871/2019, Lei 13.846/2019, art. 25, IV, da Lei 8.213/91, Art. 16 da Lei 8.213/91, Art. 80 da Lei 8.213/91, § 7º do Art. 80 da Lei 8.213/91, §1º do art. 80 da Lei 8.213/91</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E70" t="b">
-        <v>0</v>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Direito Previdenciário</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>QUESTÃO 70. José, mecânico, contando com 12 (doze) meses de contribuição para a Previdência Social, 
 sofreu acidente de trabalho, tornando -se tetraplégico. Em razão do acidente, ficou completamente 
@@ -4521,7 +5086,7 @@
 filiação, por motivo de progressão ou agravamento dessa  doença ou lesão.</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . 
@@ -4563,22 +5128,30 @@
 momento posterior, quando o segurado já estiver filiado.</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>Decreto 3.048/99, Art. 30, III, Decreto 3.048/99, Art. 29, I, Decreto 3.048/99, Art. 45, Decreto 3.048/99, Art. 48, Decreto 3.048/99, Art. 179, Decreto 3.048/99, Art. 47, Decreto 3.048/99, Art. 43, §2º, Aposentadoria por incapacidade permanente, Auxílio-acompanhante (ou “grande invalidez”)</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E71" t="b">
-        <v>0</v>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Direito Previdenciário</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>QUESTÃO 71. Alexandre, Reginaldo e Maurício eram empregados da mesma sociedade empresária, mas 
 em períodos distintos. Alexandre pediu demissão após 2 (dois) anos de trabalho, pois já estava cansado 
@@ -4598,7 +5171,7 @@
 FGTS.</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A.  
@@ -4620,22 +5193,30 @@
 acima transcritos, as alternativas B, C e D ficam incorretas .</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Lei 8.038/90, Art. 20, XV, da Lei 8.038/90, Art. 20, III, da Lei 8.038/90, Art. 20, I, da Lei 8.038/90</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E72" t="b">
-        <v>0</v>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>QUESTÃO 72. Reinaldo, trabalhador rural, atua na Fazenda Boa Esperança como tratorista desde 1990. Em 
 janeiro de 2021, o empregador de Reinaldo o dispensou sem justa causa, sendo que o ex -empregado 
@@ -4650,7 +5231,7 @@
 bimestral terá início.</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C.  
@@ -4673,22 +5254,30 @@
 prescrição extintiva. Logo, se o reclamado suscitar tal prescrição, o juiz deverá acolhê -la.</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Art. 11 da CLT, Art. 7º, XXIX da CF, Emenda Constitucional nº 28/2000</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E73" t="b">
-        <v>0</v>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>QUESTÃO 73. A empresa de trabalho temporário Sempre Alerta Ltda. terceirizará o serviço de limpeza da 
 sociedade empresária Extintores Infalíveis Ltda, nela alocando 10 (dez) auxiliares de limpeza que se 
@@ -4702,7 +5291,7 @@
 d) A cláusula de reserva é nula de pleno direito.</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.  
@@ -4717,22 +5306,30 @@
 pois falam em validade da cláusula de reserva.</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>artigo 11, parágrafo único, da Lei 6.019/1974</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E74" t="b">
-        <v>0</v>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>QUESTÃO 74. Os sindicatos de classe de uma determinada categoria elaboraram uma convenção coletiva 
 normatizando o pagamento do adicional de penosidade. A norma previa vigência de 2 (dois) anos, com 
@@ -4748,7 +5345,7 @@
 posteriormente ao dies ad quem da norma coletiva não a receberão.</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B.  
@@ -4772,22 +5369,30 @@
 conforme disposto no art., 614, § 3º, da CLT, acima transcrito.</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>art. 614, § 3º, da CLT, Normas coletivas de trabalho, ultratividade</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E75" t="b">
-        <v>0</v>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>QUESTÃO 75. Em 2024, uma companhia imobiliária contratou Olívia como estagiária. Olívia foi designada 
 para trabalhar em regime de teletrabalho (trabalho em domicílio, home office) na confecção de planilhas 
@@ -4802,7 +5407,7 @@
 d) Se for conveniente para as partes, o regime de teletrabalho pode ser adotado nos contratos de estágio.</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.  
@@ -4822,22 +5427,30 @@
 estagiários, não somente os deficientes.</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>art. 75-B, § 6º, da CLT</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E76" t="b">
-        <v>0</v>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>QUESTÃO 76. Em sede de reclamação trabalhista na qual você advoga para a empregado, foi celebrado 
 acordo entre as partes ainda na fase de conhecimento, antes da prolação da sentença. Na petição de lavra 
@@ -4855,7 +5468,7 @@
 rateadas igualmente pelas partes, dispensado o autor do recolhimento pela gratuidade de justiça.</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A.  
@@ -4880,22 +5493,30 @@
 automaticamente incorretas .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>art. 789, caput, da CLT, art. 789, § 3º, da CLT, art. 790-A da CLT, Justiça gratuita</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E77" t="b">
-        <v>0</v>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Direito Processual do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>QUESTÃO 77. Você advoga para o empregado, credor em uma reclamação trabalhista cuja decisão 
 transitou em julgado. A liquidação de sentença foi promovida e, após manifestações das partes, foi 
@@ -4912,7 +5533,7 @@
 de liquidação em cinco dias.</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.  
@@ -4933,22 +5554,30 @@
 de 10 dias.</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Art. 884 da CLT</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E78" t="b">
-        <v>0</v>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Direito Processual do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>QUESTÃO 78. Jeferson trabalhou em São Paulo de 2018 a 2023, quando foi dispensado sem justa causa e 
 voltou para sua cidade de origem, Fortaleza/CE. Entendendo ter realizado sobrejornada sem receber, 
@@ -4968,7 +5597,7 @@
 domicílio do autor, ainda que não coincida com o local da prestação dos serviços.</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C.  
@@ -4990,22 +5619,30 @@
 no estrangeiro.”</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Art. 800 da CLT, Art. 651 da CLT, Reclamação trabalhista, Exceção de incompetência territorial</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E79" t="b">
-        <v>0</v>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Direito Processual do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>QUESTÃO 79. Em determinada reclamação trabalhista, com a presença das partes e dos advogados, 
 ocorreu a 1ª audiência apenas para a tentativa de conciliação, que não teve sucesso. Então, o juiz recebeu 
@@ -5019,7 +5656,7 @@
 d) O processo será arquivado.</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C.  
@@ -5044,22 +5681,30 @@
 importa revelia, além de confissão quanto à matéria de fato.”</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>Súmula 74, I, do TST, Art. 818 da CLT, Art. 844, § 1º, da CLT, Art. 844, caput, da CLT</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E80" t="b">
-        <v>0</v>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Direito Processual do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>QUESTÃO 80. Você é advogado de um trabalhador em sede de reclamação trabalhista. Em que pese o 
 direito de seu cliente ser constitucionalmente assegurado, pois se trata de férias não gozadas um ano após 
@@ -5076,7 +5721,7 @@
 d) Agravo de Petição.</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B.   
@@ -5110,18 +5755,23 @@
   Instagram: estrategiacarreirajurídica / yasminushara</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>recursos em processo do trabalho, art. 897, alínea ‘’b’’, da CLT, Art. 897 - Cabe agravo, no prazo de 8 (oito) dias: b) de instrumento, dos despachos que denegarem a interposição de recursos., art. 896 da CLT, Art. 896 - Cabe Recurso de Revista para Turma do Tribunal Superior do Trabalho das decisões proferidas em grau de recurso ordinário, em dis sídio individual, pelos Tribunais Regionais do Trabalho, quando: (...), art. 102, III, da CF, Art. 102. Compete ao Supremo Tribunal Federal, precipuamente, a guarda da Constituição, cabendo -lhe: III - julgar, mediante recurso extraordinário, as causas decididas em ún ica ou última instância, quando a decisão recorrida: a) contrariar dispositivo desta Constituição; b) declarar a inconstitucionalidade de tratado ou lei federal; c) julgar válida lei ou ato de governo local contestado em face desta Constituição. d) julgar válida lei local contestada em face de lei federal., art. 897, alínea ‘’a’’, da CLT, Art. 897 - Cabe agravo, no prazo de 8 (oito) dias: a) de petição, das decisões do Juiz ou Presidente, nas execuções;</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E81" t="b">
-        <v>0</v>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Direito Processual do Trabalho</t>
+        </is>
       </c>
     </row>
   </sheetData>
